--- a/06_振り返り/46_開発体験シート.xlsx
+++ b/06_振り返り/46_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0136D1D0-29CA-4346-9466-B729FE25C12D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0C01A7-3F06-452A-B5EB-6ECE1F303676}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26895" yWindow="1740" windowWidth="17445" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26805" yWindow="510" windowWidth="17445" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -1736,10 +1736,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1791,7 +1791,9 @@
       <c r="E9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
@@ -1810,7 +1812,9 @@
       <c r="E10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
@@ -1829,7 +1833,9 @@
       <c r="E11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
@@ -1850,7 +1856,9 @@
       <c r="E12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1869,7 +1877,9 @@
       <c r="E13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
@@ -1888,7 +1898,9 @@
       <c r="E14" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="G14" s="45"/>
       <c r="H14" s="52" t="str">
         <f t="shared" si="0"/>
@@ -1909,7 +1921,9 @@
       <c r="E15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1928,7 +1942,9 @@
       <c r="E16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
@@ -1947,7 +1963,9 @@
       <c r="E17" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="49"/>
+      <c r="F17" s="49" t="s">
+        <v>58</v>
+      </c>
       <c r="G17" s="49"/>
       <c r="H17" s="52" t="str">
         <f t="shared" si="0"/>
@@ -1968,7 +1986,9 @@
       <c r="E18" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
@@ -1985,7 +2005,9 @@
       <c r="E19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2006,7 +2028,9 @@
       <c r="E20" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
@@ -2023,7 +2047,9 @@
       <c r="E21" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2042,7 +2068,9 @@
       <c r="E22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2059,7 +2087,9 @@
       <c r="E23" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
@@ -2078,7 +2108,9 @@
       <c r="E24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2095,7 +2127,9 @@
       <c r="E25" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2171,7 +2205,9 @@
       <c r="E29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
@@ -2188,7 +2224,9 @@
       <c r="E30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2205,7 +2243,9 @@
       <c r="E31" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2258,7 +2298,9 @@
       <c r="E34" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2351,15 +2393,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2529,6 +2562,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2546,14 +2588,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2569,4 +2603,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_振り返り/46_開発体験シート.xlsx
+++ b/06_振り返り/46_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0C01A7-3F06-452A-B5EB-6ECE1F303676}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D4866-2338-4BE2-AF47-EC2C15B05365}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26805" yWindow="510" windowWidth="17445" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22440" yWindow="2715" windowWidth="17445" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -1736,10 +1736,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2109,7 +2109,7 @@
         <v>59</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
@@ -2128,7 +2128,7 @@
         <v>59</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
@@ -2150,7 +2150,9 @@
       <c r="E26" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>59</v>
+      </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
@@ -2167,7 +2169,9 @@
       <c r="E27" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2184,7 +2188,9 @@
       <c r="E28" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="G28" s="40"/>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2264,7 +2270,9 @@
       <c r="E32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
@@ -2281,7 +2289,9 @@
       <c r="E33" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2319,7 +2329,9 @@
       <c r="E35" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2336,7 +2348,9 @@
       <c r="E36" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2353,7 +2367,9 @@
       <c r="E37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>

--- a/06_振り返り/46_開発体験シート.xlsx
+++ b/06_振り返り/46_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D4866-2338-4BE2-AF47-EC2C15B05365}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B538D9-8BF0-4597-87C7-B3AFAD3A568D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="2715" windowWidth="17445" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22155" yWindow="825" windowWidth="26085" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -1736,10 +1736,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1794,7 +1794,9 @@
       <c r="F9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="38"/>
+      <c r="G9" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1815,7 +1817,9 @@
       <c r="F10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="39"/>
+      <c r="G10" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1836,7 +1840,9 @@
       <c r="F11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1859,7 +1865,9 @@
       <c r="F12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="42"/>
+      <c r="G12" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1880,7 +1888,9 @@
       <c r="F13" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="39"/>
+      <c r="G13" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1901,7 +1911,9 @@
       <c r="F14" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="45"/>
+      <c r="G14" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="H14" s="52" t="str">
         <f t="shared" si="0"/>
         <v>－</v>
@@ -1924,7 +1936,9 @@
       <c r="F15" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="42"/>
+      <c r="G15" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -1945,7 +1959,9 @@
       <c r="F16" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -1966,7 +1982,9 @@
       <c r="F17" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="49"/>
+      <c r="G17" s="49" t="s">
+        <v>58</v>
+      </c>
       <c r="H17" s="52" t="str">
         <f t="shared" si="0"/>
         <v>－</v>
@@ -1989,7 +2007,9 @@
       <c r="F18" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="38"/>
+      <c r="G18" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2008,7 +2028,9 @@
       <c r="F19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2031,7 +2053,9 @@
       <c r="F20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="42"/>
+      <c r="G20" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2050,7 +2074,9 @@
       <c r="F21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2071,7 +2097,9 @@
       <c r="F22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2090,7 +2118,9 @@
       <c r="F23" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G23" s="39"/>
+      <c r="G23" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2111,7 +2141,9 @@
       <c r="F24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="39"/>
+      <c r="G24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2130,7 +2162,9 @@
       <c r="F25" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2153,7 +2187,9 @@
       <c r="F26" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
@@ -2172,7 +2208,9 @@
       <c r="F27" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="39" t="s">
+        <v>59</v>
+      </c>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2191,7 +2229,9 @@
       <c r="F28" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>59</v>
+      </c>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
         <v>●</v>
@@ -2214,7 +2254,9 @@
       <c r="F29" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="42"/>
+      <c r="G29" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
@@ -2233,7 +2275,9 @@
       <c r="F30" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="39"/>
+      <c r="G30" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2252,7 +2296,9 @@
       <c r="F31" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G31" s="39"/>
+      <c r="G31" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2273,10 +2319,12 @@
       <c r="F32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G32" s="39"/>
+      <c r="G32" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I32" s="9"/>
     </row>
@@ -2292,7 +2340,9 @@
       <c r="F33" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="39"/>
+      <c r="G33" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2311,7 +2361,9 @@
       <c r="F34" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="39"/>
+      <c r="G34" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2332,7 +2384,9 @@
       <c r="F35" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="41" t="s">
+        <v>57</v>
+      </c>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>○</v>
@@ -2409,6 +2463,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2578,15 +2641,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2604,6 +2658,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2619,12 +2681,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/06_振り返り/46_開発体験シート.xlsx
+++ b/06_振り返り/46_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B538D9-8BF0-4597-87C7-B3AFAD3A568D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701FAAFE-CBF9-401E-A251-788B5C7D4DFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22155" yWindow="825" windowWidth="26085" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -1739,7 +1739,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2405,10 +2405,12 @@
       <c r="F36" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="G36" s="39"/>
+      <c r="G36" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2424,10 +2426,12 @@
       <c r="F37" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="40"/>
+      <c r="G37" s="40" t="s">
+        <v>57</v>
+      </c>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2463,15 +2467,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2641,6 +2636,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
@@ -2658,14 +2662,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2681,4 +2677,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/06_振り返り/46_開発体験シート.xlsx
+++ b/06_振り返り/46_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701FAAFE-CBF9-401E-A251-788B5C7D4DFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4092F4A8-4F35-496E-8CDB-BBB7960B91C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25950" yWindow="1650" windowWidth="18555" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="71">
   <si>
     <t>実装</t>
     <rPh sb="0" eb="2">
@@ -543,6 +543,152 @@
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>エラーになりそうなところを意識しながら実装した</t>
+    <rPh sb="13" eb="15">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かりやすくなるよう意識して実装した</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムを利用するにあたってきちんと機能するか検討した</t>
+    <rPh sb="5" eb="7">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスをまたがってデータのやり取りをするメソッドを意識した</t>
+    <rPh sb="15" eb="16">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュアーからの意見や指摘をいったんメモで残しまとめるよう努めた</t>
+    <rPh sb="8" eb="10">
+      <t>イケン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シテキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レビュアーが分かりやすいように進行した</t>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムとして必要な機能を意識して作成した</t>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起こりうる代替や手順を細かく考えた</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ダイタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テジュン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値化することでどこに比重がかかっているのかを把握できた</t>
+    <rPh sb="0" eb="3">
+      <t>スウチカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒジュウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハアク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計画の遅れから前倒しにすることができた</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>マエダオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各反復でのタスクの比重を検討するべきだった</t>
+    <rPh sb="0" eb="3">
+      <t>カクハンプク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1736,10 +1882,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="G23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1801,7 +1947,9 @@
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="67"/>
@@ -1824,7 +1972,9 @@
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="68"/>
@@ -2014,7 +2164,9 @@
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
@@ -2035,7 +2187,9 @@
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="13" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="62" t="s">
@@ -2104,7 +2258,9 @@
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I22" s="9"/>
+      <c r="I22" s="9" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="60"/>
@@ -2148,7 +2304,9 @@
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I24" s="9"/>
+      <c r="I24" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
@@ -2194,7 +2352,9 @@
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
         <v>●</v>
       </c>
-      <c r="I26" s="9"/>
+      <c r="I26" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="60"/>
@@ -2215,7 +2375,9 @@
         <f t="shared" si="0"/>
         <v>●</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B28" s="61"/>
@@ -2261,7 +2423,9 @@
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="55"/>
@@ -2335,10 +2499,10 @@
         <v>43</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="39" t="s">
         <v>57</v>
@@ -2347,7 +2511,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I33" s="9"/>
+      <c r="I33" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="55"/>
@@ -2412,7 +2578,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="56"/>
@@ -2461,9 +2629,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2637,26 +2808,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2680,9 +2840,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>